--- a/automaçoes/enviar-msg-whats/Enviar.xlsx
+++ b/automaçoes/enviar-msg-whats/Enviar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\André Sobral\Projeto Deus\Programation\python\automaçoes\enviar-msg-whats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D351A1FB-D27B-4F83-810E-46D2A07A3F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6EF41C-5DC0-4D90-A936-BA06D7071419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F81C85CE-3BCD-4B33-8C8B-0A39913C8743}"/>
   </bookViews>
@@ -54,16 +54,16 @@
     <t>Erica</t>
   </si>
   <si>
-    <t>+55 31 7194-5343</t>
-  </si>
-  <si>
-    <t>+55 38 9176-9327</t>
-  </si>
-  <si>
-    <t>+55 38 8848-5556</t>
-  </si>
-  <si>
     <t>Teste python</t>
+  </si>
+  <si>
+    <t>55317194-5343</t>
+  </si>
+  <si>
+    <t>55389176-9327</t>
+  </si>
+  <si>
+    <t>55388848-5556</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,10 +444,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,10 +455,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -466,10 +466,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
